--- a/dummy data/dim_sponsor_committee.xlsx
+++ b/dummy data/dim_sponsor_committee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.l.pabon.cruz\Desktop\PHP\EM\dummy data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disk 4/OneDrive/GitHub/Event-Manager-Global/dummy data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB3147B-4EA0-4ED1-85F1-B6E9FC2BD0C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79ED72D-E49B-C348-904B-971E68A2A55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F4BB5BD7-E18B-4984-A4E5-AB97151F80FC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22000" windowHeight="9940" xr2:uid="{F4BB5BD7-E18B-4984-A4E5-AB97151F80FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -69,16 +69,16 @@
     <t>Support - Metrics &amp; Compliance</t>
   </si>
   <si>
-    <t>ERG Lead Sponsor</t>
-  </si>
-  <si>
-    <t>ERG Co-Leads</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Lead Sponsor</t>
+  </si>
+  <si>
+    <t>Co-Leads</t>
   </si>
 </sst>
 </file>
@@ -466,24 +466,24 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -539,23 +539,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -577,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
